--- a/公司POS系统/2.项目规划/Orion_测试用例.xlsx
+++ b/公司POS系统/2.项目规划/Orion_测试用例.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,13 +11,1071 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="265">
+  <si>
+    <t>用例ＩＤ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块名称(Module)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例名称(Case Name)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点(Test Point)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置条件(Prerequisite)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例步骤(Case Step)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入值(Input)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望结果(Expected Result)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复的用户代码、重复的用户名称
+登录密码、性别、所属部门、所属角色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、提示“该用户代码已存在，请修改”
+2、修改编号后，提示用户名称已存在</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在角色</t>
+  </si>
+  <si>
+    <t>存在角色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员管理</t>
+  </si>
+  <si>
+    <t>管理员管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建管理员</t>
+  </si>
+  <si>
+    <t>创建管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、以超级管理员身份登录系统
+2、进入添加管理员界面，如右侧输入相应字段值
+3、点击提交</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员名称
+登录密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复的管理员名称
+登录密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功创建该管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示“该管理员名称已存在，请修改”</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建管理员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建管理员时，字段输入的完整性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用户名称、登录密码（两个字段的输入缺少一个）
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示所填信息不完整</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少存在一个管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中管理员执行删除操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功删除所选管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改管理员信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少存在一个管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中管理员执行修改操作，按照右侧所示修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员名称
+登录密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功修改管理员信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员权限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选中根节点或其他管理员，右击选择增加管理员
+2、如右侧所示填写相关字段，点击保存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员名称、是否有效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功添加该管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员权限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加管理员名称重复的管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在至少一个管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示该管理员已存在，请重新输入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员权限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少存在一个管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选中任一管理员，右击选择修改管理员
+2、如右侧所示修改相关字段，点击保存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员名称、是否有效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功修改该管理员的属性值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少存在一个管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中任一管理员，点击删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+成功删除该角色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品资料管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击添加商品按钮
+2、进入添加商品页面，如右侧输入相应的字段值
+3、点击提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称、商品类别、计量单位、
+进价、售价、商品数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功添加该商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按名称搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少存在一个商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击按名称单选按钮
+2、在搜索框里输入如右侧的相应字段值
+3、点击搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">商品名称
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功搜索该商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按类别搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击按类别单选按钮
+2、在搜索框里输入如右侧的相应字段值
+3、点击搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功搜索该类商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少存在一个商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功查看该商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建管理员名称重复的管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户代码和用户名称重复的管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复商品名称、商品类别、计量单位、
+进价、售价、商品数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加商品名称重复的商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示“该商品已存在，不可添加”</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中任一商品，点击查看按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类别、计量单位、
+进价、售价、商品数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选中任一商品，点击修改按钮
+2、进入商品修改页面，按照右侧修改相关字段
+3、点击提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功修改该商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选中任一商品，点击删除按钮
+2、弹出是否删除弹框
+3、点击是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功删除该商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类别管理</t>
+  </si>
+  <si>
+    <t>商品类别管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击添加商品类别按钮
+2、进入添加商品类别页面，如右侧输入相应的字段值
+3、点击提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功添加该商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加类别名称重复的商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击添加商品类别按钮
+2、进入添加商品类别页面，如右侧输入相应的字段值
+3、点击提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示“该商品类别已存在，不可添加”</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1、在搜索框里输入如右侧的相应字段值
+2、点击搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功搜索该商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少存在一个商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中任一商品类别，点击查看按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功查看该商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选中任一商品类别，点击修改按钮
+2、进入商品类别修改页面，按照右侧修改相关字段
+3、点击提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功修改该商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少存在一个商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选中任一商品类别，点击删除按钮
+2、弹出是否删除弹框
+3、点击是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功删除该商品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户资料管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户资料管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加客户资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称、联系人、公司地址、公司电话、E-mail、备注</t>
+  </si>
+  <si>
+    <t>成功添加该客户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加客户名称重复的客户资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在客户资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少存在一个客户资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少存在一个客户资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索客户资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看客户资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改客户资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除客户资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索客户资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改客户资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除客户资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击添加客户按钮
+2、进入添加客户页面，如右侧输入相应的字段值
+3、点击提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复客户名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示“该客户已存在，不可添加”</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功搜索该客户资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中任一客户，点击查看按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功查看该客户资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选中任一客户，点击修改按钮
+2、进入客户修改页面，按照右侧修改相关字段
+3、点击提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称、联系人、公司地址、公司电话、E-mail、备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功修改该客户资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选中任一客户，点击删除按钮
+2、弹出是否删除弹框
+3、点击确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功删除该客户资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1、在搜索框里输入如右侧的相应字段值
+2、点击搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商资料管理</t>
+  </si>
+  <si>
+    <t>添加供应商资料</t>
+  </si>
+  <si>
+    <t>1、点击添加供应商按钮
+2、进入添加供应商页面，如右侧输入相应的字段值
+3、点击提交</t>
+  </si>
+  <si>
+    <t>供应商名称、联系人、公司地址、公司电话、E-mail、备注</t>
+  </si>
+  <si>
+    <t>成功添加该供应商</t>
+  </si>
+  <si>
+    <t>添加供应商名称重复的供应商资料</t>
+  </si>
+  <si>
+    <t>存在供应商资料</t>
+  </si>
+  <si>
+    <t>重复供应商名称</t>
+  </si>
+  <si>
+    <t>提示“该供应商已存在，不可添加”</t>
+  </si>
+  <si>
+    <t>搜索供应商资料</t>
+  </si>
+  <si>
+    <t>至少存在一个供应商资料</t>
+  </si>
+  <si>
+    <t>供应商名称</t>
+  </si>
+  <si>
+    <t>成功搜索该供应商资料</t>
+  </si>
+  <si>
+    <t>查看供应商资料</t>
+  </si>
+  <si>
+    <t>选中任一供应商，点击查看按钮</t>
+  </si>
+  <si>
+    <t>成功查看该供应商资料</t>
+  </si>
+  <si>
+    <t>修改供应商资料</t>
+  </si>
+  <si>
+    <t>1、选中任一供应商，点击修改按钮
+2、进入供应商修改页面，按照右侧修改相关字段
+3、点击提交</t>
+  </si>
+  <si>
+    <t>成功修改该供应商资料</t>
+  </si>
+  <si>
+    <t>删除供应商资料</t>
+  </si>
+  <si>
+    <t>1、选中任一供应商，点击删除按钮
+2、弹出是否删除弹框
+3、点击确定</t>
+  </si>
+  <si>
+    <t>成功删除该供应商资料</t>
+  </si>
+  <si>
+    <t>添加采购管理</t>
+  </si>
+  <si>
+    <t>搜索采购管理</t>
+  </si>
+  <si>
+    <t>成功搜索该采购管理</t>
+  </si>
+  <si>
+    <t>查看采购管理</t>
+  </si>
+  <si>
+    <t>成功查看该采购管理</t>
+  </si>
+  <si>
+    <t>修改采购管理</t>
+  </si>
+  <si>
+    <t>成功修改该采购管理</t>
+  </si>
+  <si>
+    <t>删除采购管理</t>
+  </si>
+  <si>
+    <t>成功删除该采购管理</t>
+  </si>
+  <si>
+    <t>1、点击添加采购按钮
+2、进入添加采购页面，如右侧输入相应的字段值
+3、点击提交</t>
+  </si>
+  <si>
+    <t>成功添加该采购</t>
+  </si>
+  <si>
+    <t>选中任一采购，点击查看按钮</t>
+  </si>
+  <si>
+    <t>1、选中任一采购，点击修改按钮
+2、进入采购修改页面，按照右侧修改相关字段
+3、点击提交</t>
+  </si>
+  <si>
+    <t>1、选中任一采购，点击删除按钮
+2、弹出是否删除弹框
+3、点击确定</t>
+  </si>
+  <si>
+    <t>采购信息管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少存在一次采购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商、采购总价、采购人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商、采购日期、采购人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售信息管理</t>
+  </si>
+  <si>
+    <t>添加销售管理</t>
+  </si>
+  <si>
+    <t>1、点击添加销售按钮
+2、进入添加销售页面，如右侧输入相应的字段值
+3、点击提交</t>
+  </si>
+  <si>
+    <t>成功添加该销售</t>
+  </si>
+  <si>
+    <t>搜索销售管理</t>
+  </si>
+  <si>
+    <t>至少存在一次销售</t>
+  </si>
+  <si>
+    <t>成功搜索该销售管理</t>
+  </si>
+  <si>
+    <t>查看销售管理</t>
+  </si>
+  <si>
+    <t>选中任一销售，点击查看按钮</t>
+  </si>
+  <si>
+    <t>成功查看该销售管理</t>
+  </si>
+  <si>
+    <t>修改销售管理</t>
+  </si>
+  <si>
+    <t>1、选中任一销售，点击修改按钮
+2、进入销售修改页面，按照右侧修改相关字段
+3、点击提交</t>
+  </si>
+  <si>
+    <t>成功修改该销售管理</t>
+  </si>
+  <si>
+    <t>删除销售管理</t>
+  </si>
+  <si>
+    <t>1、选中任一销售，点击删除按钮
+2、弹出是否删除弹框
+3、点击确定</t>
+  </si>
+  <si>
+    <t>成功删除该销售管理</t>
+  </si>
+  <si>
+    <t>客户名称、销售日期、销售人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称、销售总价、销售人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选中任一采购，点击添加明细按钮
+2、进入明细添加页面，按照右侧填写相关字段
+3、点击添加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称、商品数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功添加该采购明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选中任一销售，点击添加明细按钮
+2、进入明细添加页面，按照右侧填写相关字段
+3、点击添加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功添加该销售明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加采购退货管理</t>
+  </si>
+  <si>
+    <t>成功添加该采购退货</t>
+  </si>
+  <si>
+    <t>搜索采购退货管理</t>
+  </si>
+  <si>
+    <t>至少存在一次采购退货</t>
+  </si>
+  <si>
+    <t>成功搜索该采购退货管理</t>
+  </si>
+  <si>
+    <t>查看采购退货管理</t>
+  </si>
+  <si>
+    <t>选中任一采购退货，点击查看按钮</t>
+  </si>
+  <si>
+    <t>成功查看该采购退货管理</t>
+  </si>
+  <si>
+    <t>修改采购退货管理</t>
+  </si>
+  <si>
+    <t>1、选中任一采购退货，点击修改按钮
+2、进入采购退货修改页面，按照右侧修改相关字段
+3、点击提交</t>
+  </si>
+  <si>
+    <t>成功修改该采购退货管理</t>
+  </si>
+  <si>
+    <t>删除采购退货管理</t>
+  </si>
+  <si>
+    <t>1、选中任一采购退货，点击删除按钮
+2、弹出是否删除弹框
+3、点击确定</t>
+  </si>
+  <si>
+    <t>成功删除该采购退货管理</t>
+  </si>
+  <si>
+    <t>1、选中任一采购退货，点击添加明细按钮
+2、进入明细添加页面，按照右侧填写相关字段
+3、点击添加</t>
+  </si>
+  <si>
+    <t>采购退货管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击添加采购退货按钮
+2、进入添加采购退货页面，如右侧选择相应的字段值
+3、点击提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售退货管理</t>
+  </si>
+  <si>
+    <t>添加销售退货管理</t>
+  </si>
+  <si>
+    <t>1、点击添加销售退货按钮
+2、进入添加销售退货页面，如右侧选择相应的字段值
+3、点击提交</t>
+  </si>
+  <si>
+    <t>成功添加该销售退货</t>
+  </si>
+  <si>
+    <t>搜索销售退货管理</t>
+  </si>
+  <si>
+    <t>至少存在一次销售退货</t>
+  </si>
+  <si>
+    <t>成功搜索该销售退货管理</t>
+  </si>
+  <si>
+    <t>查看销售退货管理</t>
+  </si>
+  <si>
+    <t>选中任一销售退货，点击查看按钮</t>
+  </si>
+  <si>
+    <t>成功查看该销售退货管理</t>
+  </si>
+  <si>
+    <t>修改销售退货管理</t>
+  </si>
+  <si>
+    <t>1、选中任一销售退货，点击修改按钮
+2、进入销售退货修改页面，按照右侧修改相关字段
+3、点击提交</t>
+  </si>
+  <si>
+    <t>成功修改该销售退货管理</t>
+  </si>
+  <si>
+    <t>删除销售退货管理</t>
+  </si>
+  <si>
+    <t>1、选中任一销售退货，点击删除按钮
+2、弹出是否删除弹框
+3、点击确定</t>
+  </si>
+  <si>
+    <t>成功删除该销售退货管理</t>
+  </si>
+  <si>
+    <t>1、选中任一销售退货，点击添加明细按钮
+2、进入明细添加页面，按照右侧填写相关字段
+3、点击添加</t>
+  </si>
+  <si>
+    <t>成功添加该销售退货明细</t>
+  </si>
+  <si>
+    <t>添加商品数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量（多余库存的数量）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示“商品剩余量不足”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击下一页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功进入下一页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少存在两页商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击上一页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功进入上一页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至多存在一页商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、选中翻页框
+2、在里面输入大于1 
+3、点击go</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示“输入不合法，请重新输入”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +1083,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,23 +1134,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -100,7 +1227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -135,7 +1262,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,37 +1470,1648 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="34.5" customWidth="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1"/>
+    <col min="8" max="8" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>30</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>33</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>34</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>35</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>36</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>37</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>39</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>41</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>42</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>45</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>46</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>47</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>47</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>48</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>49</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>50</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>51</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>52</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>53</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>54</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>55</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>56</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <v>57</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
+        <v>58</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
+        <v>59</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>